--- a/product_data.xlsx
+++ b/product_data.xlsx
@@ -11,63 +11,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>product_id</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>ime</t>
-  </si>
-  <si>
-    <t>receive_date</t>
-  </si>
-  <si>
-    <t>delivery_date</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>bill</t>
-  </si>
-  <si>
-    <t>customer_name</t>
-  </si>
-  <si>
-    <t>customer_number</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+  <si>
+    <t>Product id</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>User id</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Ime</t>
+  </si>
+  <si>
+    <t>Receive date</t>
+  </si>
+  <si>
+    <t>Delivery date</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Customer name</t>
+  </si>
+  <si>
+    <t>Customer number</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Created at</t>
   </si>
   <si>
     <t>P240910001</t>
@@ -106,28 +94,70 @@
     <t>123456487987</t>
   </si>
   <si>
+    <t>P240910002</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>7 Plus</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Sohan</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>P240910003</t>
+  </si>
+  <si>
+    <t>Oppo</t>
+  </si>
+  <si>
+    <t>F21 Pro</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>01923678654</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>P240910002</t>
-  </si>
-  <si>
-    <t>Nokia</t>
-  </si>
-  <si>
-    <t>7 Plus</t>
-  </si>
-  <si>
-    <t>2024-09-04</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Sohan</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>P240910004</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
+  </si>
+  <si>
+    <t>P240910005</t>
+  </si>
+  <si>
+    <t>2997</t>
   </si>
 </sst>
 </file>
@@ -505,13 +535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:O6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="19" width="20" customWidth="1"/>
+    <col min="1" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,129 +587,240 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45538.33253472223</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="1">
-        <v>45538.33253472223</v>
-      </c>
-      <c r="S2" s="1">
-        <v>45538.33253472223</v>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1">
+        <v>45539.3930787037</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="P3" t="s">
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="1">
+        <v>45540.283055555556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="1">
+        <v>45540.28395833333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="1">
-        <v>45539.3930787037</v>
-      </c>
-      <c r="S3" s="1">
-        <v>45539.3930787037</v>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="1">
+        <v>45540.29157407407</v>
       </c>
     </row>
   </sheetData>
